--- a/biology/Zoologie/Emeidae/Emeidae.xlsx
+++ b/biology/Zoologie/Emeidae/Emeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éméidés
 Emeidae, francisé en éméidés, est une famille fossile d'oiseaux paléognathes de l'ordre des Dinornithiformes. Éteinte lors de l'époque historique, elle comprend la plupart des espèces de moas.
@@ -512,11 +524,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette famille est décrite en 1854 par l'ornithologue français Charles-Lucien Bonaparte (1803-1857)[1]. La reconnaissance des sous-familles Anomalopteryginae et Emeinae fait débat[2].
-Liste des genres et espèces
-Selon une étude de Michael Bunce et al. de 2009, les genres et espèces reconnus sont[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est décrite en 1854 par l'ornithologue français Charles-Lucien Bonaparte (1803-1857). La reconnaissance des sous-familles Anomalopteryginae et Emeinae fait débat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Emeidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emeidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon une étude de Michael Bunce et al. de 2009, les genres et espèces reconnus sont :
 Genre Anomalopteryx Reichenbach, 1852
 Anomalopteryx didiformis (Owen, 1844)
 Genre Emeus Reichenbach, 1852
